--- a/Math results.xlsx
+++ b/Math results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862C954E-B5A9-4D33-8131-79F058DF55D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E99C3-1F0A-4C75-A183-5300BF7822AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,10 +789,6 @@
 </t>
   </si>
   <si>
-    <t>tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u/t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,157 +797,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">pick_ratio
+    <t xml:space="preserve"> 1.05267214222639
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A_f</t>
+    <t xml:space="preserve"> 3.2815118196847776e-07
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.05267214222639
+    <t xml:space="preserve"> 0.19386661568989025
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3.2815118196847776e-07
+    <t xml:space="preserve"> 0.40523471080295814
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.19386661568989025
+    <t xml:space="preserve"> 1.0638624784991486
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.40523471080295814
+    <t xml:space="preserve"> 1.5422605817405828e-06
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0638624784991486
+    <t xml:space="preserve"> 0.1969480602978191
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.5422605817405828e-06
+    <t xml:space="preserve"> 0.4102408085602509
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.1969480602978191
+    <t xml:space="preserve"> 1.0962702484118099
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4102408085602509
+    <t xml:space="preserve"> 6.659453563891902e-05
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0962702484118099
+    <t xml:space="preserve"> 0.20586972118797053
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6.659453563891902e-05
+    <t xml:space="preserve"> 0.4247145226179362
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.20586972118797053
+    <t xml:space="preserve"> 1.135077172881646
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4247145226179362
+    <t xml:space="preserve"> 7.988692195603436e-05
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.135077172881646
+    <t xml:space="preserve"> 0.2207295997832708
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 7.988692195603436e-05
+    <t xml:space="preserve"> 0.4473177412375404
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.2207295997832708
+    <t xml:space="preserve"> 4.193693647599204
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4473177412375404
+    <t xml:space="preserve"> 0.4236584634164293
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4.193693647599204
+    <t xml:space="preserve"> 1.565186265093088
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4236584634164293
+    <t xml:space="preserve"> 2.300322249481681
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.565186265093088
+    <t xml:space="preserve"> 0.428837697023583
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.300322249481681
+    <t xml:space="preserve"> 1.5818865563212836
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.428837697023583
+    <t xml:space="preserve"> 2.3258145642015102
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.5818865563212836
+    <t xml:space="preserve"> 0.7127041440708789
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3258145642015102
+    <t xml:space="preserve"> 2.2420401776703174
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.7127041440708789
+    <t xml:space="preserve"> 3.196506965628081
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2420401776703174
+    <t xml:space="preserve"> 0.5618049522556822
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3.196506965628081
+    <t xml:space="preserve"> 1.9091691602900824
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.5618049522556822
+    <t xml:space="preserve"> 2.768506029174675
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.9091691602900824
+    <t xml:space="preserve">M/s
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.768506029174675
-</t>
+    <t>E[A_f]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1314,21 +1314,21 @@
     <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,7 +2059,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2977,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3028,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3079,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3198,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3300,7 +3300,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3997,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,7 +4048,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4218,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4320,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4371,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>9</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -5119,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -5221,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5238,7 +5238,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -5340,7 +5340,7 @@
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5391,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">

--- a/Math results.xlsx
+++ b/Math results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E99C3-1F0A-4C75-A183-5300BF7822AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E08C0D9-7719-47FC-804B-20EC912D7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="224">
   <si>
     <t>-1 %</t>
   </si>
@@ -789,169 +789,148 @@
 </t>
   </si>
   <si>
-    <t>u/t</t>
+    <t xml:space="preserve"> 1.05267214222639
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
+    <t xml:space="preserve"> 3.2815118196847776e-07
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.05267214222639
+    <t xml:space="preserve"> 0.19386661568989025
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3.2815118196847776e-07
+    <t xml:space="preserve"> 0.40523471080295814
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.19386661568989025
+    <t xml:space="preserve"> 1.0638624784991486
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.40523471080295814
+    <t xml:space="preserve"> 1.5422605817405828e-06
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0638624784991486
+    <t xml:space="preserve"> 0.1969480602978191
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.5422605817405828e-06
+    <t xml:space="preserve"> 0.4102408085602509
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.1969480602978191
+    <t xml:space="preserve"> 1.0962702484118099
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4102408085602509
+    <t xml:space="preserve"> 6.659453563891902e-05
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0962702484118099
+    <t xml:space="preserve"> 0.20586972118797053
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6.659453563891902e-05
+    <t xml:space="preserve"> 0.4247145226179362
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.20586972118797053
+    <t xml:space="preserve"> 1.135077172881646
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4247145226179362
+    <t xml:space="preserve"> 7.988692195603436e-05
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.135077172881646
+    <t xml:space="preserve"> 0.2207295997832708
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 7.988692195603436e-05
+    <t xml:space="preserve"> 0.4473177412375404
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.2207295997832708
+    <t xml:space="preserve"> 4.193693647599204
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4473177412375404
+    <t xml:space="preserve"> 0.4236584634164293
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4.193693647599204
+    <t xml:space="preserve"> 1.565186265093088
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.4236584634164293
+    <t xml:space="preserve"> 2.300322249481681
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.565186265093088
+    <t xml:space="preserve"> 0.428837697023583
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.300322249481681
+    <t xml:space="preserve"> 1.5818865563212836
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.428837697023583
+    <t xml:space="preserve"> 2.3258145642015102
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.5818865563212836
+    <t xml:space="preserve"> 0.7127041440708789
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3258145642015102
+    <t xml:space="preserve"> 2.2420401776703174
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.7127041440708789
+    <t xml:space="preserve"> 3.196506965628081
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2420401776703174
+    <t xml:space="preserve"> 0.5618049522556822
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3.196506965628081
+    <t xml:space="preserve"> 1.9091691602900824
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.5618049522556822
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9091691602900824
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2.768506029174675
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">M/s
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E[A_f]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,11 +974,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1015,6 +995,744 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>169984</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="214546" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文字方塊 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0591B955-3F44-C08D-0DDD-6B0FBE0913C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="169984" y="87923"/>
+              <a:ext cx="214546" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑙</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文字方塊 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0591B955-3F44-C08D-0DDD-6B0FBE0913C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="169984" y="87923"/>
+              <a:ext cx="214546" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡_𝑙</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87922</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93784</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400302" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文字方塊 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AC959C-946F-4797-9CE5-EE14D1801CF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="638907" y="93784"/>
+              <a:ext cx="400302" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文字方塊 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AC959C-946F-4797-9CE5-EE14D1801CF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="638907" y="93784"/>
+              <a:ext cx="400302" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>211016</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105507</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="167033" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文字方塊 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD4C72-B1D1-43F5-9C67-29D2969D9B55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1312985" y="105507"/>
+              <a:ext cx="167033" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文字方塊 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD4C72-B1D1-43F5-9C67-29D2969D9B55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1312985" y="105507"/>
+              <a:ext cx="167033" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑟</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99645</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="478849" cy="281808"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文字方塊 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292E4B0C-E696-40FE-ADFF-626EF6829952}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="99645"/>
+              <a:ext cx="478849" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文字方塊 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292E4B0C-E696-40FE-ADFF-626EF6829952}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="99645"/>
+              <a:ext cx="478849" cy="281808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="614399" cy="299697"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文字方塊 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEA11D4-C8AA-4924-97D7-C46360F2F024}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3012831" y="87922"/>
+              <a:ext cx="614399" cy="299697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>[</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文字方塊 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEA11D4-C8AA-4924-97D7-C46360F2F024}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3012831" y="87922"/>
+              <a:ext cx="614399" cy="299697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[𝐴_𝑓]</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,7 +2023,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1314,22 +2032,9 @@
     <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" t="s">
-        <v>227</v>
-      </c>
+    <row r="1" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1957,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1974,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2161,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2977,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2994,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3028,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3079,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3181,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3198,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3300,7 +4005,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3351,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3997,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4014,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,7 +4753,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4099,7 +4804,7 @@
         <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4201,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4218,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4320,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4371,7 +5076,7 @@
         <v>7</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5017,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5034,7 +5739,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -5068,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -5119,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -5221,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5238,7 +5943,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -5340,7 +6045,7 @@
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5391,7 +6096,7 @@
         <v>7</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -5416,5 +6121,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Math results.xlsx
+++ b/Math results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E08C0D9-7719-47FC-804B-20EC912D7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D880FD-71D2-40EC-8932-D0682B33B5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,12 +974,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1007,8 +1006,8 @@
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -1050,6 +1049,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1089,7 +1089,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -1153,8 +1153,8 @@
       <xdr:rowOff>93784</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1196,6 +1196,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1228,7 +1229,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1298,8 +1299,8 @@
       <xdr:rowOff>105507</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1341,6 +1342,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1361,7 +1363,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1425,8 +1427,8 @@
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -1468,6 +1470,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1500,7 +1503,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -1570,8 +1573,8 @@
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="614399" cy="299697"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -1613,6 +1616,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1670,7 +1674,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -1732,6 +1736,56 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2567354</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>637599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238F9CFA-3BB8-66B5-3F8F-D25F5F81E8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290647" y="99646"/>
+          <a:ext cx="2409092" cy="537953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2023,18 +2077,18 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/Math results.xlsx
+++ b/Math results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D880FD-71D2-40EC-8932-D0682B33B5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7D534-3525-4D5A-B00A-6E795227BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$D$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="185">
   <si>
     <t>-1 %</t>
   </si>
@@ -37,901 +37,716 @@
     <t xml:space="preserve"> 0.1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.930137918359101e-188
+    <t xml:space="preserve"> 0.0
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 0.3 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.6507547016634152e-147
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.5 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9.941709767436108e-107
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.7 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.11916109163798e-66
+    <t xml:space="preserve"> 3.120901040943e-312
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 1000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.6000248122070038e-183
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.001100369041683e-143
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.007316138185251e-104
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.9779810437736276e-64
+    <t xml:space="preserve"> 3.976266359199869e-304
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 1500 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.61082442139995e-178
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.03913369057906e-140
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.5126217208923345e-101
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2429952563910292e-62
+    <t xml:space="preserve"> 5.007729866207119e-296
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 30 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.02169475691757314
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.02279228200897193
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.02416914220372675
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.02605030405613021
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.02415481818630277
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.025300146012631367
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.026735287841051357
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.028691202678114067
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0267982716705035
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.027993544043474893
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.029487386202286324
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03151924674003597
+    <t xml:space="preserve"> 0.009638322965474585
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.010335552769040217
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.011219480673809644
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012452786901125584
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.011421025068019165
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012164214933031603
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01312001010464679
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.014440921701237603
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.013383095101505734
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.014196627730023824
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.015231212323500389
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01662909960106027
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 50 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.30074906818617214
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.30481232255514257
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3098350433635927
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.31656331956003525
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3153750760621736
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.31957055724776934
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3247565665204318
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3317031079523202
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3308310481028723
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3351660489848552
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.34052438035246596
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3477013074629349
+    <t xml:space="preserve"> 0.2528721695320406
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2559480607182798
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.25973387930631586
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26473849815614675
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26594562510952097
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26912118746421165
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2730294821524256
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2781955228010503
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.27976533008403137
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28304578672868186
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28708304680972496
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.29241913664205954
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 70 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0777095352583337
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1087499201336586
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1205159373766704
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1545977452027547
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.16960248314162
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1820007416609204
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1973465038985736
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2179217676863976
+    <t xml:space="preserve"> 0.9224575912044666
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9307230054923934
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9409007915864164
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9543553861567345
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9719759133895927
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9806507305048974
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9913335818640518
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0054570648748813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0256358949790731
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.034759093642119
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.045995185003824
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.06085149778775
 </t>
   </si>
   <si>
     <t xml:space="preserve"> 90 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.245895426069454
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.310858594121567
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.398498809097278
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.737115164862302
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.797901518824658
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.8736028583100754
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.975818430494757
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.445667523980292
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.518182917739524
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.608567744281778
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.730740103757272
+    <t xml:space="preserve"> 3.61026764523576
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.646053011012159
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6902893697648023
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.749033645534166
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.061238694803475
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.102526777539217
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.153589300353507
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.221450792138263
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.644410761343026
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.693091011348701
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.753368176956596
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.833560387334637
 </t>
   </si>
   <si>
     <t>10 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.4e-323
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.129153481813046e-195
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.264439994e-315
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2836587831318644e-191
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.4772762240753856e-308
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.549104415790277e-187
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.043339685132796e-154
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3794153498736866e-121
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.277705501218e-88
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.248049958997441e-55
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.175075256793223e-147
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0843264246446587e-115
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.509990581632254e-84
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.125727595395263e-52
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.696317321769897e-139
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.03660985604048e-109
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.1532990890908742e-79
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8131395484481044e-49
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.415196987337692e-06
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.520052195427227e-06
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.552888742295965e-05
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00027911799295752643
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0001269114369547242
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002309013315258282
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0004525813523647221
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0009470654783548622
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.43523937459401824
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.44381099073499114
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5376055698991405
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5438244264182716
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5515119030497211
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6954979568502879
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.703191358898853
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.7254433996067654
+    <t xml:space="preserve"> 2.5351006158195874e-256
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.377243313829691e-243
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.974572599799758e-230
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.74149578367199e-25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.428872325192028e-21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9594469862508444e-16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.839618391891831e-11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3824035609944247e-18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0822958059544553e-15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1491102828653315e-12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.48428209389769e-09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.673356231870868e-13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.541507497024309e-11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.402745436059072e-09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.957984091989545e-07
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3639926828751073
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.36806173749379567
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3730691806106222
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.379662643712714
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4663030287325552
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.47119772124077725
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4772212346346752
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.48514791138458957
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6078647424851696
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6139287414746921
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6213923944954033
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6312088745590397
 </t>
   </si>
   <si>
     <t>30 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.4598242127173989e-291
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.389246976535801e-287
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.0379407876922475e-282
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.307330324974476e-107
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.511449714686808e-84
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3659647761574233e-61
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.837014647975038e-39
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5352807349387246e-102
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0026715426201737e-80
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.116189430951087e-59
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.10518485730291e-37
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4264238165317636e-97
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.841658835421545e-77
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8614159647231098e-56
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0728106665757582e-35
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0014800522700549644
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0019439397166065154
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.002605554041278522
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0035914151451395394
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.002710730820188196
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0033109572640178863
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.004099617229844685
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0052048043930979105
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.004394301213620654
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00508519958043313
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00595431855700947
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007151378563823864
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.20075930105597864
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2134276752192878
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.21669237793232102
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.22614154100233294
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.23509292127567813
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.23855822962648987
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2428429096699112
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2485851694406818
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6025750628492714
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6303392350274715
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8319624648824717
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8517389933146884
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8762520452170248
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.188065996233657
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2121575497114625
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2821996310832673
+    <t xml:space="preserve"> 1.5465961495876796e-291
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.601825709565442e-177
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.092920829724978e-278
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.879415858870737e-169
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.642827459312255e-266
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3526996890258385e-161
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2336945980774337e-07
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.833584959367885e-07
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.07614025230351e-06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.385103997403655e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4751992168041203e-06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.195967217429477e-06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.319080791794678e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00015248897934478378
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6883717017126987e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.110962166089204e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00015716513301346867
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000443146012257373
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15765676489432653
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15999570967953503
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16287665551692335
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1666882246296322
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1750544284620548
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1775347998823698
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18058935364260467
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18462926831852694
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19435705443761375
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19699172924035158
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20023570761162557
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20452484878896948
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3733739376565883
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3856183725908358
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4007081914723316
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4206579853328622
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6058549164253295
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.620261603791112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6380232041994882
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6615135196770647
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.914190675214961
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9316018853522139
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.953079353684334
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9814967988631547
 </t>
   </si>
   <si>
     <t>50 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3795615755627938e-299
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9023950514396324e-181
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.385509115764207e-294
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.439694845596915e-178
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.7135353913280866e-288
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.219257287602394e-175
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.748964067072467e-32
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.412485980965727e-26
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.44978639796449e-20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3251738673299731e-13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.7611211828080873e-29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.0242136360863955e-24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.651998001919227e-18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.071413518917998e-13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.0028262083040538e-27
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2228293094342605e-22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.952618717503514e-17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.667928634705333e-12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.04800547250443528
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.04952555681722742
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.05141672711224665
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.053973899114174814
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.053246485255259574
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.05483791386728463
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.05681632507371726
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0594887049283418
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.05893175664657748
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.06059738101287349
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0626666250832809
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.06545941587984248
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4164283822330799
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4355121003744382
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4407918615338997
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4560566640782077
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.468668226457763
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.47424861841663724
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4811462336804227
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.49038282831343927
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.357441369040303
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3999562044616
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.65105634984621
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.681083239990355
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.7183597478792905
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1150354462221985
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.151367357227445
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.257286570331159
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.05267214222639
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2815118196847776e-07
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.19386661568989025
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.40523471080295814
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0638624784991486
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5422605817405828e-06
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1969480602978191
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4102408085602509
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0962702484118099
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.659453563891902e-05
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.20586972118797053
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4247145226179362
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.135077172881646
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.988692195603436e-05
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2207295997832708
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4473177412375404
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.193693647599204
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4236584634164293
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.565186265093088
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.300322249481681
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.428837697023583
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5818865563212836
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3258145642015102
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.7127041440708789
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2420401776703174
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.196506965628081
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5618049522556822
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9091691602900824
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.768506029174675
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> 1.6214842240852494e-146
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.744823757051894e-115
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.200042864539123e-84
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8221758394444092e-52
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.239207323981491e-135
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.106286412832203e-106
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8480881636708352e-77
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8700075804782583e-48
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.744562016271478e-124
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.363405211321e-98
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.60514678249628e-71
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.368578924503051e-45
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.030537842791394126
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.031642514268452306
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03300754429913606
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03482798528829251
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03492470642244186
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.036077506569741145
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03750656609349338
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03941971844762174
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03968300970596242
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.040898507610058504
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.04240791400562001
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.04442116000931466
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.34635227293321724
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35013873632243275
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3547981647503959
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.36095438842438954
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3734421944766292
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.37743268301777366
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3823430893861203
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3888304683966546
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.40310279049299447
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.40731676331029154
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41250214364214616
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41935243005371625
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0098012054716796
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.028029829322419
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0505182438369802
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.080298983882814
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.310465335452732
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3317702803891542
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3580658088839734
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.392904569295925
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7053033831721156
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7308395729688137
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7623754444953312
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.804181127453279
+</t>
   </si>
 </sst>
 </file>
@@ -974,11 +789,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1001,19 +813,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>169984</xdr:colOff>
+      <xdr:colOff>148046</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:rowOff>56606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0591B955-3F44-C08D-0DDD-6B0FBE0913C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC451CD0-812C-4C11-B618-FA6E18FF94AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1021,7 +833,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="169984" y="87923"/>
+              <a:off x="148046" y="56606"/>
               <a:ext cx="214546" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1089,13 +901,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0591B955-3F44-C08D-0DDD-6B0FBE0913C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC451CD0-812C-4C11-B618-FA6E18FF94AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1103,7 +915,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="169984" y="87923"/>
+              <a:off x="148046" y="56606"/>
               <a:ext cx="214546" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1131,6 +943,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1148,19 +961,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>87922</xdr:colOff>
+      <xdr:colOff>57275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>93784</xdr:rowOff>
+      <xdr:rowOff>62467</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AC959C-946F-4797-9CE5-EE14D1801CF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112D8672-5797-4525-B2A5-720BABC7084C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1168,7 +981,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="638907" y="93784"/>
+              <a:off x="605915" y="62467"/>
               <a:ext cx="400302" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1229,13 +1042,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AC959C-946F-4797-9CE5-EE14D1801CF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112D8672-5797-4525-B2A5-720BABC7084C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1243,7 +1056,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="638907" y="93784"/>
+              <a:off x="605915" y="62467"/>
               <a:ext cx="400302" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1271,6 +1084,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1294,19 +1108,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>211016</xdr:colOff>
+      <xdr:colOff>167306</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>105507</xdr:rowOff>
+      <xdr:rowOff>78545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD4C72-B1D1-43F5-9C67-29D2969D9B55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6365AA8-6CC7-4757-8221-DF2B42E403BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1314,7 +1128,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1312985" y="105507"/>
+              <a:off x="1264586" y="78545"/>
               <a:ext cx="167033" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1363,13 +1177,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD4C72-B1D1-43F5-9C67-29D2969D9B55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6365AA8-6CC7-4757-8221-DF2B42E403BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1377,7 +1191,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1312985" y="105507"/>
+              <a:off x="1264586" y="78545"/>
               <a:ext cx="167033" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1405,6 +1219,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1422,19 +1237,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
+      <xdr:colOff>36342</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>99645</xdr:rowOff>
+      <xdr:rowOff>77038</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292E4B0C-E696-40FE-ADFF-626EF6829952}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A68DCC5-DA89-4732-A724-A83BB1A76A10}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1442,7 +1257,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1828800" y="99645"/>
+              <a:off x="1682262" y="77038"/>
               <a:ext cx="478849" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1503,13 +1318,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292E4B0C-E696-40FE-ADFF-626EF6829952}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A68DCC5-DA89-4732-A724-A83BB1A76A10}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1517,7 +1332,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1828800" y="99645"/>
+              <a:off x="1682262" y="77038"/>
               <a:ext cx="478849" cy="281808"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1545,6 +1360,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1568,19 +1384,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>550985</xdr:colOff>
+      <xdr:colOff>433252</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>87922</xdr:rowOff>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="614399" cy="299697"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEA11D4-C8AA-4924-97D7-C46360F2F024}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5625024B-54D7-44F4-A507-0670499F5D56}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1588,7 +1404,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3012831" y="87922"/>
+              <a:off x="2627812" y="65314"/>
               <a:ext cx="614399" cy="299697"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1674,13 +1490,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEA11D4-C8AA-4924-97D7-C46360F2F024}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5625024B-54D7-44F4-A507-0670499F5D56}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1688,7 +1504,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3012831" y="87922"/>
+              <a:off x="2627812" y="65314"/>
               <a:ext cx="614399" cy="299697"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1716,6 +1532,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1739,22 +1556,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>158262</xdr:colOff>
+      <xdr:colOff>288724</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>99646</xdr:rowOff>
+      <xdr:rowOff>13063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2567354</xdr:colOff>
+      <xdr:colOff>2094412</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>637599</xdr:rowOff>
+      <xdr:rowOff>422446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7">
+        <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238F9CFA-3BB8-66B5-3F8F-D25F5F81E8F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73C478F-2DE6-44F9-9957-997522E25EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1580,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1776,8 +1593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4290647" y="99646"/>
-          <a:ext cx="2409092" cy="537953"/>
+          <a:off x="4120495" y="13063"/>
+          <a:ext cx="1805688" cy="409383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2076,20 +1893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.25" customWidth="1"/>
+    <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="1"/>
-    </row>
+    <row r="1" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
@@ -2121,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2135,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2152,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,13 +1980,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2183,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2200,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2217,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2234,13 +2048,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2299,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2308,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2316,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2325,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2333,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2350,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2384,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2401,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2435,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,16 +2266,16 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2469,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2512,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2520,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2529,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2537,16 +2351,16 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2554,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2571,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2588,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2622,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
         <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2639,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2673,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2690,24 +2504,24 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2715,16 +2529,16 @@
       <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2732,8 +2546,8 @@
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>199</v>
+      <c r="E39" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2741,33 +2555,33 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>203</v>
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2775,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,33 +2606,33 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>207</v>
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
         <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2860,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2877,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,24 +2708,24 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2919,8 +2733,8 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>211</v>
+      <c r="E50" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2937,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,16 +2759,16 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2962,16 +2776,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
         <v>56</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2979,16 +2793,16 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3030,16 +2844,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3047,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3064,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3081,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3098,21 +2912,21 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -3124,12 +2938,12 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -3141,12 +2955,12 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -3155,15 +2969,15 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -3172,154 +2986,154 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3328,15 +3142,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -3345,185 +3159,185 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -3532,15 +3346,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3549,185 +3363,185 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
         <v>68</v>
       </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3735,16 +3549,16 @@
       <c r="D98" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3752,186 +3566,186 @@
       <c r="D99" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>200</v>
+      <c r="E99" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
         <v>7</v>
       </c>
-      <c r="E100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" t="s">
-        <v>47</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>204</v>
+      <c r="E101" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -3939,16 +3753,16 @@
       <c r="D110" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -3956,183 +3770,183 @@
       <c r="D111" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>215</v>
+      <c r="E111" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
         <v>7</v>
       </c>
-      <c r="E116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>68</v>
-      </c>
-      <c r="B117" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>221</v>
+      <c r="E117" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>218</v>
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
@@ -4144,12 +3958,12 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
         <v>1</v>
@@ -4161,12 +3975,12 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -4175,15 +3989,15 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -4192,154 +4006,154 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -4348,15 +4162,15 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -4365,185 +4179,185 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -4552,15 +4366,15 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -4569,185 +4383,185 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -4755,16 +4569,16 @@
       <c r="D158" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4772,186 +4586,186 @@
       <c r="D159" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>201</v>
+      <c r="E159" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>93</v>
+      </c>
+      <c r="B161" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
         <v>7</v>
       </c>
-      <c r="E160" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>104</v>
-      </c>
-      <c r="B161" t="s">
-        <v>47</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>205</v>
+      <c r="E161" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B169" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4959,16 +4773,16 @@
       <c r="D170" t="s">
         <v>3</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -4976,183 +4790,183 @@
       <c r="D171" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>216</v>
+      <c r="E171" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>93</v>
+      </c>
+      <c r="B177" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
         <v>7</v>
       </c>
-      <c r="E176" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>104</v>
-      </c>
-      <c r="B177" t="s">
-        <v>56</v>
-      </c>
-      <c r="C177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>222</v>
+      <c r="E177" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>219</v>
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -5164,12 +4978,12 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
@@ -5181,12 +4995,12 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
@@ -5195,15 +5009,15 @@
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -5212,154 +5026,154 @@
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B189" t="s">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B190" t="s">
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B191" t="s">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B192" t="s">
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B193" t="s">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -5368,15 +5182,15 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -5385,185 +5199,185 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B196" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B198" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B200" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B201" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B202" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D203" t="s">
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B204" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>136</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
         <v>148</v>
-      </c>
-      <c r="B205" t="s">
-        <v>21</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -5572,15 +5386,15 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -5589,185 +5403,185 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B210" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B211" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B212" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B213" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C213" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B214" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B215" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C215" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D215" t="s">
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B216" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B218" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -5775,16 +5589,16 @@
       <c r="D218" t="s">
         <v>3</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E218" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B219" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -5792,186 +5606,186 @@
       <c r="D219" t="s">
         <v>5</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>202</v>
+      <c r="E219" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
       </c>
       <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>136</v>
+      </c>
+      <c r="B221" t="s">
+        <v>39</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
         <v>7</v>
       </c>
-      <c r="E220" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>148</v>
-      </c>
-      <c r="B221" t="s">
-        <v>47</v>
-      </c>
-      <c r="C221" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>206</v>
+      <c r="E221" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B223" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B224" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="E224" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B225" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D227" t="s">
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B230" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -5979,16 +5793,16 @@
       <c r="D230" t="s">
         <v>3</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E230" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B231" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -5996,182 +5810,182 @@
       <c r="D231" t="s">
         <v>5</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>217</v>
+      <c r="E231" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B232" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B233" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B234" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B235" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B236" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>136</v>
+      </c>
+      <c r="B237" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
         <v>7</v>
       </c>
-      <c r="E236" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>148</v>
-      </c>
-      <c r="B237" t="s">
-        <v>56</v>
-      </c>
-      <c r="C237" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s">
-        <v>9</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>223</v>
+      <c r="E237" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B239" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B240" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>220</v>
+        <v>6</v>
+      </c>
+      <c r="E240" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Math results.xlsx
+++ b/Math results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7D534-3525-4D5A-B00A-6E795227BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B71A6-FA8F-4264-943B-377EC7175FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$241</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -64,689 +64,726 @@
     <t xml:space="preserve"> 1500 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 30 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.009638322965474585
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.010335552769040217
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.011219480673809644
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012452786901125584
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.011421025068019165
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012164214933031603
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01312001010464679
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.014440921701237603
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.013383095101505734
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.014196627730023824
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.015231212323500389
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2528721695320406
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2559480607182798
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.25973387930631586
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26473849815614675
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26594562510952097
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26912118746421165
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2730294821524256
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2781955228010503
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.27976533008403137
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28304578672868186
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28708304680972496
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9224575912044666
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9307230054923934
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9543553861567345
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9719759133895927
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9806507305048974
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0054570648748813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0256358949790731
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.034759093642119
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.61026764523576
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.646053011012159
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6902893697648023
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.061238694803475
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.102526777539217
+</t>
+  </si>
+  <si>
+    <t>10 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5351006158195874e-256
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.377243313829691e-243
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.974572599799758e-230
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.74149578367199e-25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.428872325192028e-21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9594469862508444e-16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.839618391891831e-11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3824035609944247e-18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0822958059544553e-15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1491102828653315e-12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.48428209389769e-09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.673356231870868e-13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.541507497024309e-11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.402745436059072e-09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3639926828751073
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.36806173749379567
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3730691806106222
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6078647424851696
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6139287414746921
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6213923944954033
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6312088745590397
+</t>
+  </si>
+  <si>
+    <t>30 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5465961495876796e-291
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.601825709565442e-177
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.092920829724978e-278
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.879415858870737e-169
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.642827459312255e-266
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3526996890258385e-161
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.833584959367885e-07
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.07614025230351e-06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.385103997403655e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.195967217429477e-06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.319080791794678e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00015248897934478378
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.110962166089204e-05
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00015716513301346867
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15765676489432653
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15999570967953503
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16287665551692335
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1666882246296322
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1750544284620548
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1775347998823698
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18058935364260467
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18462926831852694
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19435705443761375
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19699172924035158
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20023570761162557
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3733739376565883
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3856183725908358
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4007081914723316
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6058549164253295
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.620261603791112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.914190675214961
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9316018853522139
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.953079353684334
+</t>
+  </si>
+  <si>
+    <t>50 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6214842240852494e-146
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.744823757051894e-115
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.200042864539123e-84
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8221758394444092e-52
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.239207323981491e-135
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.106286412832203e-106
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8480881636708352e-77
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8700075804782583e-48
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.744562016271478e-124
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.363405211321e-98
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.60514678249628e-71
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.368578924503051e-45
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.030537842791394126
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.031642514268452306
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03300754429913606
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03482798528829251
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03492470642244186
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03750656609349338
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03941971844762174
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03968300970596242
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.040898507610058504
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.04240791400562001
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.04442116000931466
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.34635227293321724
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35013873632243275
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3547981647503959
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.36095438842438954
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3734421944766292
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3823430893861203
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3888304683966546
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.40310279049299447
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.40731676331029154
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41250214364214616
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0098012054716796
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.028029829322419
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0505182438369802
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.310465335452732
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7053033831721156
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7308395729688137
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7623754444953312
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5.007729866207119e-296
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.009638322965474585
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.010335552769040217
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.011219480673809644
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.012452786901125584
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.011421025068019165
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.012164214933031603
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.01312001010464679
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.014440921701237603
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.013383095101505734
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.014196627730023824
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.015231212323500389
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.01662909960106027
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2528721695320406
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2559480607182798
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.25973387930631586
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.26473849815614675
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.26594562510952097
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.26912118746421165
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2730294821524256
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2781955228010503
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.27976533008403137
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.28304578672868186
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.28708304680972496
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.29241913664205954
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9224575912044666
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9307230054923934
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.06085149778775
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.833560387334637
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.48514791138458957
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000443146012257373
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20452484878896948
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9814967988631547
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.036077506569741145
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.37743268301777366
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3317702803891542
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.957984091989545e-07
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41935243005371625
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.153589300353507
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4772212346346752
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6380232041994882
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3580658088839734
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.749033645534166
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.379662643712714
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4206579853328622
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.080298983882814
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.221450792138263
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.392904569295925
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.804181127453279
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2336945980774337e-07
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4751992168041203e-06
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6883717017126987e-05
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.9409007915864164
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9543553861567345
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9719759133895927
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9806507305048974
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.9913335818640518
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0054570648748813
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0256358949790731
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.034759093642119
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1.045995185003824
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.06085149778775
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.61026764523576
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.646053011012159
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.6902893697648023
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.749033645534166
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.061238694803475
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.102526777539217
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.153589300353507
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.221450792138263
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6615135196770647
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 4.644410761343026
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 4.693091011348701
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 4.753368176956596
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.833560387334637
-</t>
-  </si>
-  <si>
-    <t>10 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.5351006158195874e-256
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.377243313829691e-243
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.974572599799758e-230
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.74149578367199e-25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.428872325192028e-21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.9594469862508444e-16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.839618391891831e-11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3824035609944247e-18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0822958059544553e-15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1491102828653315e-12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.48428209389769e-09
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.673356231870868e-13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.541507497024309e-11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.402745436059072e-09
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.957984091989545e-07
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3639926828751073
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.36806173749379567
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3730691806106222
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.379662643712714
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.4663030287325552
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.47119772124077725
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4772212346346752
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.48514791138458957
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6078647424851696
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6139287414746921
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6213923944954033
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6312088745590397
-</t>
-  </si>
-  <si>
-    <t>30 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5465961495876796e-291
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.601825709565442e-177
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.092920829724978e-278
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.879415858870737e-169
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.642827459312255e-266
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3526996890258385e-161
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2336945980774337e-07
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.833584959367885e-07
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.07614025230351e-06
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.385103997403655e-05
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.4751992168041203e-06
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.195967217429477e-06
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.319080791794678e-05
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00015248897934478378
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6883717017126987e-05
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.110962166089204e-05
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00015716513301346867
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000443146012257373
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.15765676489432653
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.15999570967953503
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.16287665551692335
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1666882246296322
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1750544284620548
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1775347998823698
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.18058935364260467
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.18462926831852694
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.19435705443761375
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.19699172924035158
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.20023570761162557
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.20452484878896948
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3733739376565883
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3856183725908358
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4007081914723316
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4206579853328622
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6058549164253295
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.620261603791112
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6380232041994882
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6615135196770647
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.914190675214961
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9316018853522139
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.953079353684334
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9814967988631547
-</t>
-  </si>
-  <si>
-    <t>50 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6214842240852494e-146
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.744823757051894e-115
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.200042864539123e-84
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.8221758394444092e-52
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.239207323981491e-135
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.106286412832203e-106
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8480881636708352e-77
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8700075804782583e-48
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.744562016271478e-124
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.363405211321e-98
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.60514678249628e-71
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.368578924503051e-45
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.030537842791394126
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.031642514268452306
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03300754429913606
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03482798528829251
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03492470642244186
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.036077506569741145
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03750656609349338
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03941971844762174
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.03968300970596242
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.040898507610058504
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.04240791400562001
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.04442116000931466
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.34635227293321724
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.35013873632243275
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3547981647503959
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.36095438842438954
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3734421944766292
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.37743268301777366
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3823430893861203
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3888304683966546
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.40310279049299447
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.40731676331029154
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.41250214364214616
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.41935243005371625
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0098012054716796
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.028029829322419
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0505182438369802
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.080298983882814
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.310465335452732
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3317702803891542
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3580658088839734
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.392904569295925
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.7053033831721156
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.7308395729688137
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.7623754444953312
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.804181127453279
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -789,8 +826,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -818,8 +858,8 @@
       <xdr:rowOff>56606</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214546" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -901,7 +941,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文字方塊 1">
@@ -966,8 +1006,8 @@
       <xdr:rowOff>62467</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400302" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1042,7 +1082,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -1113,8 +1153,8 @@
       <xdr:rowOff>78545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167033" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1177,7 +1217,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -1242,8 +1282,8 @@
       <xdr:rowOff>77038</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478849" cy="281808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -1318,7 +1358,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -1381,178 +1421,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>433252</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="614399" cy="299697"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="文字方塊 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5625024B-54D7-44F4-A507-0670499F5D56}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2627812" y="65314"/>
-              <a:ext cx="614399" cy="299697"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐸</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>[</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐴</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="文字方塊 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5625024B-54D7-44F4-A507-0670499F5D56}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2627812" y="65314"/>
-              <a:ext cx="614399" cy="299697"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐸</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>[𝐴_𝑓]</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1595,6 +1463,56 @@
         <a:xfrm>
           <a:off x="4120495" y="13063"/>
           <a:ext cx="1805688" cy="409383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104502</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1777115</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>452845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9319AA-4822-35E1-2C7B-D4311A28928C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2299062" y="39188"/>
+          <a:ext cx="1672613" cy="413657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1899,7 +1817,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2091,7 +2009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +2022,8 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2113,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2122,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2130,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2139,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2147,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2156,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2164,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2173,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2181,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -2190,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2198,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2207,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2215,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -2224,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2232,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2241,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2249,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -2258,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2266,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -2275,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2283,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -2292,15 +2210,15 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -2308,8 +2226,8 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
-        <v>25</v>
+      <c r="E25" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2317,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2326,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2343,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2351,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2360,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2368,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2377,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2385,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2394,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2402,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2411,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2419,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2428,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2436,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2445,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2462,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2470,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -2479,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2487,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -2496,15 +2414,15 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -2512,8 +2430,8 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-      <c r="E37" t="s">
-        <v>38</v>
+      <c r="E37" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2521,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2530,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2547,15 +2465,15 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2563,8 +2481,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>42</v>
+      <c r="E40" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2572,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2581,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2589,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -2598,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2606,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -2615,15 +2533,15 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2631,8 +2549,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>46</v>
+      <c r="E44" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2640,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -2649,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2657,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -2666,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2674,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -2683,15 +2601,15 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -2699,16 +2617,16 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -2716,8 +2634,8 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" t="s">
-        <v>51</v>
+      <c r="E49" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2734,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2742,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2751,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2768,15 +2686,15 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2784,8 +2702,8 @@
       <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" t="s">
-        <v>56</v>
+      <c r="E53" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -2802,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2810,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -2819,15 +2737,15 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -2835,16 +2753,16 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2852,16 +2770,16 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -2869,16 +2787,16 @@
       <c r="D58" t="s">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2886,16 +2804,16 @@
       <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -2903,16 +2821,16 @@
       <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2920,13 +2838,13 @@
       <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
-        <v>64</v>
+      <c r="E61" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -2943,7 +2861,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2960,7 +2878,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2977,7 +2895,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2994,7 +2912,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3011,7 +2929,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -3028,7 +2946,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -3045,7 +2963,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -3062,7 +2980,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3079,7 +2997,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -3096,7 +3014,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3113,7 +3031,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3130,10 +3048,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3147,10 +3065,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -3164,10 +3082,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -3181,10 +3099,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -3198,10 +3116,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -3215,10 +3133,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -3232,10 +3150,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -3249,10 +3167,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -3266,10 +3184,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -3283,10 +3201,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -3300,10 +3218,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -3317,10 +3235,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -3334,10 +3252,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -3351,10 +3269,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3368,10 +3286,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -3385,10 +3303,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -3397,15 +3315,15 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -3419,10 +3337,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -3436,10 +3354,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -3453,10 +3371,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -3465,15 +3383,15 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -3487,10 +3405,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -3504,10 +3422,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -3521,10 +3439,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -3533,15 +3451,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3550,15 +3468,15 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3567,15 +3485,15 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3584,15 +3502,15 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -3601,15 +3519,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -3618,15 +3536,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -3635,15 +3553,15 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -3652,15 +3570,15 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -3669,15 +3587,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -3686,15 +3604,15 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -3703,15 +3621,15 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3720,15 +3638,15 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3736,16 +3654,16 @@
       <c r="D109" t="s">
         <v>7</v>
       </c>
-      <c r="E109" t="s">
-        <v>80</v>
+      <c r="E109" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -3754,15 +3672,15 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -3771,15 +3689,15 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3788,15 +3706,15 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -3804,16 +3722,16 @@
       <c r="D113" t="s">
         <v>7</v>
       </c>
-      <c r="E113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -3821,16 +3739,16 @@
       <c r="D114" t="s">
         <v>3</v>
       </c>
-      <c r="E114" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -3838,16 +3756,16 @@
       <c r="D115" t="s">
         <v>5</v>
       </c>
-      <c r="E115" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -3855,16 +3773,16 @@
       <c r="D116" t="s">
         <v>6</v>
       </c>
-      <c r="E116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -3872,16 +3790,16 @@
       <c r="D117" t="s">
         <v>7</v>
       </c>
-      <c r="E117" t="s">
-        <v>88</v>
+      <c r="E117" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -3890,15 +3808,15 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -3907,15 +3825,15 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -3924,15 +3842,15 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -3941,12 +3859,12 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
@@ -3963,7 +3881,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
         <v>1</v>
@@ -3980,7 +3898,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -3997,7 +3915,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -4014,7 +3932,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
@@ -4031,7 +3949,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -4048,7 +3966,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -4065,7 +3983,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
@@ -4082,7 +4000,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
@@ -4099,7 +4017,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B131" t="s">
         <v>1</v>
@@ -4116,7 +4034,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
@@ -4133,7 +4051,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -4150,10 +4068,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -4167,10 +4085,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -4184,10 +4102,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -4196,15 +4114,15 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -4213,15 +4131,15 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
@@ -4235,10 +4153,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -4252,10 +4170,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -4264,15 +4182,15 @@
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -4281,15 +4199,15 @@
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -4303,10 +4221,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
@@ -4320,10 +4238,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
@@ -4332,15 +4250,15 @@
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
@@ -4349,15 +4267,15 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -4365,16 +4283,16 @@
       <c r="D146" t="s">
         <v>3</v>
       </c>
-      <c r="E146" t="s">
-        <v>100</v>
+      <c r="E146" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -4383,15 +4301,15 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -4400,15 +4318,15 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4417,15 +4335,15 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
@@ -4433,16 +4351,16 @@
       <c r="D150" t="s">
         <v>3</v>
       </c>
-      <c r="E150" t="s">
-        <v>104</v>
+      <c r="E150" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -4451,15 +4369,15 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -4468,15 +4386,15 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
@@ -4485,15 +4403,15 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -4501,16 +4419,16 @@
       <c r="D154" t="s">
         <v>3</v>
       </c>
-      <c r="E154" t="s">
-        <v>108</v>
+      <c r="E154" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -4519,15 +4437,15 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -4536,15 +4454,15 @@
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
@@ -4552,16 +4470,16 @@
       <c r="D157" t="s">
         <v>7</v>
       </c>
-      <c r="E157" t="s">
-        <v>111</v>
+      <c r="E157" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -4570,15 +4488,15 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4587,15 +4505,15 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -4604,15 +4522,15 @@
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -4621,15 +4539,15 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
@@ -4638,15 +4556,15 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
@@ -4655,15 +4573,15 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
@@ -4672,15 +4590,15 @@
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -4689,15 +4607,15 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
@@ -4706,15 +4624,15 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
@@ -4723,15 +4641,15 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -4740,15 +4658,15 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -4756,16 +4674,16 @@
       <c r="D169" t="s">
         <v>7</v>
       </c>
-      <c r="E169" t="s">
-        <v>123</v>
+      <c r="E169" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -4774,15 +4692,15 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -4791,15 +4709,15 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4808,15 +4726,15 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -4824,16 +4742,16 @@
       <c r="D173" t="s">
         <v>7</v>
       </c>
-      <c r="E173" t="s">
-        <v>127</v>
+      <c r="E173" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
@@ -4842,15 +4760,15 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -4859,15 +4777,15 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -4875,16 +4793,16 @@
       <c r="D176" t="s">
         <v>6</v>
       </c>
-      <c r="E176" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -4892,16 +4810,16 @@
       <c r="D177" t="s">
         <v>7</v>
       </c>
-      <c r="E177" t="s">
-        <v>131</v>
+      <c r="E177" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
@@ -4910,15 +4828,15 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C179" t="s">
         <v>11</v>
@@ -4927,15 +4845,15 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
@@ -4944,15 +4862,15 @@
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
@@ -4960,13 +4878,13 @@
       <c r="D181" t="s">
         <v>7</v>
       </c>
-      <c r="E181" t="s">
-        <v>135</v>
+      <c r="E181" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -4983,7 +4901,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
@@ -5000,7 +4918,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
@@ -5017,7 +4935,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -5034,7 +4952,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
@@ -5051,7 +4969,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
@@ -5068,7 +4986,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
@@ -5085,7 +5003,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B189" t="s">
         <v>1</v>
@@ -5102,7 +5020,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B190" t="s">
         <v>1</v>
@@ -5119,7 +5037,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B191" t="s">
         <v>1</v>
@@ -5136,7 +5054,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B192" t="s">
         <v>1</v>
@@ -5153,7 +5071,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B193" t="s">
         <v>1</v>
@@ -5170,10 +5088,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -5182,15 +5100,15 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -5199,15 +5117,15 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -5216,15 +5134,15 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -5233,15 +5151,15 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -5250,15 +5168,15 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -5267,15 +5185,15 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -5284,15 +5202,15 @@
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -5301,15 +5219,15 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
         <v>11</v>
@@ -5318,15 +5236,15 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
         <v>11</v>
@@ -5335,15 +5253,15 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C204" t="s">
         <v>11</v>
@@ -5352,15 +5270,15 @@
         <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
         <v>11</v>
@@ -5369,15 +5287,15 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B206" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -5386,15 +5304,15 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -5403,15 +5321,15 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B208" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -5420,15 +5338,15 @@
         <v>6</v>
       </c>
       <c r="E208" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -5437,15 +5355,15 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -5454,15 +5372,15 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B211" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -5470,16 +5388,16 @@
       <c r="D211" t="s">
         <v>5</v>
       </c>
-      <c r="E211" t="s">
-        <v>154</v>
+      <c r="E211" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B212" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -5488,15 +5406,15 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -5505,15 +5423,15 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C214" t="s">
         <v>11</v>
@@ -5522,15 +5440,15 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B215" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C215" t="s">
         <v>11</v>
@@ -5539,15 +5457,15 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B216" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C216" t="s">
         <v>11</v>
@@ -5556,15 +5474,15 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C217" t="s">
         <v>11</v>
@@ -5573,15 +5491,15 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B218" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -5590,15 +5508,15 @@
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B219" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -5607,15 +5525,15 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -5624,15 +5542,15 @@
         <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B221" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -5641,15 +5559,15 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B222" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -5658,15 +5576,15 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B223" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -5674,16 +5592,16 @@
       <c r="D223" t="s">
         <v>5</v>
       </c>
-      <c r="E223" t="s">
-        <v>166</v>
+      <c r="E223" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -5692,15 +5610,15 @@
         <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -5709,15 +5627,15 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B226" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C226" t="s">
         <v>11</v>
@@ -5726,15 +5644,15 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C227" t="s">
         <v>11</v>
@@ -5743,15 +5661,15 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C228" t="s">
         <v>11</v>
@@ -5760,15 +5678,15 @@
         <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B229" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C229" t="s">
         <v>11</v>
@@ -5776,16 +5694,16 @@
       <c r="D229" t="s">
         <v>7</v>
       </c>
-      <c r="E229" t="s">
-        <v>172</v>
+      <c r="E229" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -5794,15 +5712,15 @@
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -5811,15 +5729,15 @@
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B232" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -5828,15 +5746,15 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -5844,16 +5762,16 @@
       <c r="D233" t="s">
         <v>7</v>
       </c>
-      <c r="E233" t="s">
-        <v>176</v>
+      <c r="E233" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -5862,15 +5780,15 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -5878,16 +5796,16 @@
       <c r="D235" t="s">
         <v>5</v>
       </c>
-      <c r="E235" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -5895,16 +5813,16 @@
       <c r="D236" t="s">
         <v>6</v>
       </c>
-      <c r="E236" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -5912,16 +5830,16 @@
       <c r="D237" t="s">
         <v>7</v>
       </c>
-      <c r="E237" t="s">
-        <v>180</v>
+      <c r="E237" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C238" t="s">
         <v>11</v>
@@ -5930,15 +5848,15 @@
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C239" t="s">
         <v>11</v>
@@ -5947,15 +5865,15 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C240" t="s">
         <v>11</v>
@@ -5964,15 +5882,15 @@
         <v>6</v>
       </c>
       <c r="E240" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C241" t="s">
         <v>11</v>
@@ -5980,12 +5898,12 @@
       <c r="D241" t="s">
         <v>7</v>
       </c>
-      <c r="E241" t="s">
-        <v>184</v>
+      <c r="E241" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Math results.xlsx
+++ b/Math results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\paper\My thesis\docker_volume\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\越南旅程閱讀\paper\My thesis\docker_volume\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B71A6-FA8F-4264-943B-377EC7175FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEDAC17-F998-4B1E-9584-FB67F40AC828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1811,13 +1811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1861,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1878,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1904,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1929,16 +1929,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1946,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,16 +1963,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>148</v>
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,50 +2031,50 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
+      <c r="E16" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2082,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2105,10 +2105,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2116,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2133,24 +2133,24 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2158,8 +2158,8 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
-        <v>20</v>
+      <c r="E21" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -2176,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2201,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2218,33 +2218,33 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="E26" t="s">
-        <v>25</v>
+      <c r="E26" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2269,16 +2269,16 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2289,47 +2289,47 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
-        <v>30</v>
+      <c r="E31" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2354,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2377,35 +2377,35 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -2413,8 +2413,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>35</v>
+      <c r="E36" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -2431,41 +2431,41 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2476,30 +2476,30 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
-        <v>39</v>
+      <c r="E41" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2541,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>177</v>
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2561,13 +2561,13 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2575,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,16 +2592,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>178</v>
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2626,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>151</v>
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2686,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2694,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>166</v>
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,33 +2711,33 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2748,13 +2748,13 @@
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>162</v>
+      <c r="E56" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2762,16 +2762,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>170</v>
+      <c r="E57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2779,16 +2779,16 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>180</v>
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2796,16 +2796,16 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2813,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>182</v>
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -2833,30 +2833,30 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
-        <v>4</v>
+      <c r="E62" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2867,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2881,13 +2881,13 @@
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2898,13 +2898,13 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -2915,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2924,15 +2924,15 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -2940,8 +2940,8 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" t="s">
-        <v>4</v>
+      <c r="E67" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2955,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2966,13 +2966,13 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2983,13 +2983,13 @@
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -3000,33 +3000,33 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="E72" t="s">
-        <v>4</v>
+      <c r="E72" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3037,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -3054,10 +3054,10 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -3068,50 +3068,50 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" t="s">
-        <v>4</v>
+      <c r="E77" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3119,13 +3119,13 @@
         <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -3142,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -3153,16 +3153,16 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3170,7 +3170,7 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -3179,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3187,7 +3187,7 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -3210,7 +3210,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3221,13 +3221,13 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3238,16 +3238,16 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3255,16 +3255,16 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3272,10 +3272,10 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -3289,19 +3289,19 @@
         <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -3309,30 +3309,30 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3340,16 +3340,16 @@
         <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3357,10 +3357,10 @@
         <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
@@ -3374,16 +3374,16 @@
         <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -3408,16 +3408,16 @@
         <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3425,7 +3425,7 @@
         <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -3434,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3442,7 +3442,7 @@
         <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -3451,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3459,16 +3459,16 @@
         <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3476,16 +3476,16 @@
         <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,13 +3496,13 @@
         <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,16 +3510,16 @@
         <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,16 +3527,16 @@
         <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3544,16 +3544,16 @@
         <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3561,16 +3561,16 @@
         <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3581,13 +3581,13 @@
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3595,16 +3595,16 @@
         <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3612,16 +3612,16 @@
         <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3629,16 +3629,16 @@
         <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3646,16 +3646,16 @@
         <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3663,16 +3663,16 @@
         <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3697,7 +3697,7 @@
         <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3706,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3714,16 +3714,16 @@
         <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>167</v>
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3731,16 +3731,16 @@
         <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>183</v>
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3748,16 +3748,16 @@
         <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>184</v>
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3768,13 +3768,13 @@
         <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>163</v>
+      <c r="E116" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -3782,16 +3782,16 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>153</v>
+      <c r="E117" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3799,16 +3799,16 @@
         <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,16 +3816,16 @@
         <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3833,16 +3833,16 @@
         <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3853,13 +3853,13 @@
         <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
-      <c r="E121" t="s">
-        <v>72</v>
+      <c r="E121" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3867,16 +3867,16 @@
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3887,10 +3887,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
@@ -3901,13 +3901,13 @@
         <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
@@ -3918,16 +3918,16 @@
         <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
         <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
@@ -3944,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3952,7 +3952,7 @@
         <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
@@ -3961,7 +3961,7 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3975,7 +3975,7 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
@@ -3986,13 +3986,13 @@
         <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
         <v>4</v>
@@ -4003,53 +4003,53 @@
         <v>73</v>
       </c>
       <c r="B130" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>73</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>73</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
       </c>
-      <c r="E132" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>73</v>
       </c>
@@ -4057,16 +4057,16 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -4074,47 +4074,47 @@
         <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -4122,16 +4122,16 @@
         <v>73</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
-      <c r="E137" t="s">
-        <v>75</v>
+      <c r="E137" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -4139,13 +4139,13 @@
         <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E138" t="s">
         <v>4</v>
@@ -4162,10 +4162,10 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -4173,16 +4173,16 @@
         <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -4199,7 +4199,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -4207,7 +4207,7 @@
         <v>73</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -4230,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>4</v>
@@ -4241,16 +4241,16 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -4258,16 +4258,16 @@
         <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4275,16 +4275,16 @@
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>173</v>
+      <c r="E146" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4292,16 +4292,16 @@
         <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4309,19 +4309,19 @@
         <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>73</v>
       </c>
@@ -4329,13 +4329,13 @@
         <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4343,16 +4343,16 @@
         <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>174</v>
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4360,16 +4360,16 @@
         <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4377,16 +4377,16 @@
         <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4394,16 +4394,16 @@
         <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4417,10 +4417,10 @@
         <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>175</v>
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4428,16 +4428,16 @@
         <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4445,7 +4445,7 @@
         <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -4454,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4462,7 +4462,7 @@
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
@@ -4470,8 +4470,8 @@
       <c r="D157" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>154</v>
+      <c r="E157" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -4479,16 +4479,16 @@
         <v>73</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -4496,16 +4496,16 @@
         <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" t="s">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -4516,13 +4516,13 @@
         <v>36</v>
       </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4530,16 +4530,16 @@
         <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
-      <c r="E161" t="s">
-        <v>91</v>
+      <c r="E161" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4547,16 +4547,16 @@
         <v>73</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4564,16 +4564,16 @@
         <v>73</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4581,19 +4581,19 @@
         <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>73</v>
       </c>
@@ -4601,13 +4601,13 @@
         <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4615,16 +4615,16 @@
         <v>73</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4632,16 +4632,16 @@
         <v>73</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4649,16 +4649,16 @@
         <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4666,16 +4666,16 @@
         <v>73</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4683,16 +4683,16 @@
         <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -4717,7 +4717,7 @@
         <v>73</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4726,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4734,16 +4734,16 @@
         <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4751,16 +4751,16 @@
         <v>73</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4768,16 +4768,16 @@
         <v>73</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E175" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4788,13 +4788,13 @@
         <v>45</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D176" t="s">
         <v>6</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>164</v>
+      <c r="E176" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4802,16 +4802,16 @@
         <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>179</v>
+      <c r="E177" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4819,16 +4819,16 @@
         <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4836,33 +4836,33 @@
         <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4873,13 +4873,13 @@
         <v>45</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4887,16 +4887,16 @@
         <v>107</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -4907,30 +4907,30 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>107</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4938,16 +4938,16 @@
         <v>107</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4955,7 +4955,7 @@
         <v>107</v>
       </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -4964,15 +4964,15 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>107</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -4980,8 +4980,8 @@
       <c r="D187" t="s">
         <v>5</v>
       </c>
-      <c r="E187" t="s">
-        <v>4</v>
+      <c r="E187" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4995,7 +4995,7 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
         <v>4</v>
@@ -5006,33 +5006,33 @@
         <v>107</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>107</v>
       </c>
       <c r="B190" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5040,36 +5040,36 @@
         <v>107</v>
       </c>
       <c r="B191" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
         <v>5</v>
       </c>
-      <c r="E191" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>107</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
         <v>6</v>
       </c>
-      <c r="E192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>107</v>
       </c>
@@ -5077,16 +5077,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E193" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>107</v>
       </c>
@@ -5094,47 +5094,47 @@
         <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>107</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>107</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5142,16 +5142,16 @@
         <v>107</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
       </c>
-      <c r="E197" t="s">
-        <v>111</v>
+      <c r="E197" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5159,16 +5159,16 @@
         <v>107</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5182,10 +5182,10 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5193,16 +5193,16 @@
         <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -5210,7 +5210,7 @@
         <v>107</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -5219,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5227,7 +5227,7 @@
         <v>107</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C202" t="s">
         <v>11</v>
@@ -5236,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -5244,16 +5244,16 @@
         <v>107</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>11</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -5267,10 +5267,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -5278,16 +5278,16 @@
         <v>107</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C205" t="s">
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -5295,16 +5295,16 @@
         <v>107</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -5312,53 +5312,53 @@
         <v>107</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>107</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>107</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>107</v>
       </c>
@@ -5366,13 +5366,13 @@
         <v>24</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D210" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5380,16 +5380,16 @@
         <v>107</v>
       </c>
       <c r="B211" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D211" t="s">
         <v>5</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>157</v>
+      <c r="E211" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -5397,16 +5397,16 @@
         <v>107</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D212" t="s">
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -5414,16 +5414,16 @@
         <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E213" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -5431,16 +5431,16 @@
         <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
         <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E214" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -5454,10 +5454,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E215" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
         <v>107</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C216" t="s">
         <v>11</v>
@@ -5474,7 +5474,7 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -5482,7 +5482,7 @@
         <v>107</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C217" t="s">
         <v>11</v>
@@ -5490,8 +5490,8 @@
       <c r="D217" t="s">
         <v>7</v>
       </c>
-      <c r="E217" t="s">
-        <v>130</v>
+      <c r="E217" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -5499,16 +5499,16 @@
         <v>107</v>
       </c>
       <c r="B218" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D218" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -5516,33 +5516,33 @@
         <v>107</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>107</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -5553,13 +5553,13 @@
         <v>36</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
       </c>
-      <c r="E221" t="s">
-        <v>134</v>
+      <c r="E221" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -5567,16 +5567,16 @@
         <v>107</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5584,36 +5584,36 @@
         <v>107</v>
       </c>
       <c r="B223" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E223" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>107</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>107</v>
       </c>
@@ -5621,30 +5621,30 @@
         <v>36</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>107</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -5652,16 +5652,16 @@
         <v>107</v>
       </c>
       <c r="B227" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D227" t="s">
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -5669,16 +5669,16 @@
         <v>107</v>
       </c>
       <c r="B228" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5686,16 +5686,16 @@
         <v>107</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -5703,16 +5703,16 @@
         <v>107</v>
       </c>
       <c r="B230" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -5737,7 +5737,7 @@
         <v>107</v>
       </c>
       <c r="B232" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -5746,7 +5746,7 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5754,16 +5754,16 @@
         <v>107</v>
       </c>
       <c r="B233" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="E233" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -5771,16 +5771,16 @@
         <v>107</v>
       </c>
       <c r="B234" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E234" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5788,16 +5788,16 @@
         <v>107</v>
       </c>
       <c r="B235" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5808,13 +5808,13 @@
         <v>45</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>165</v>
+      <c r="E236" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5822,67 +5822,67 @@
         <v>107</v>
       </c>
       <c r="B237" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>107</v>
       </c>
       <c r="B238" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>107</v>
       </c>
       <c r="B239" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>107</v>
       </c>
       <c r="B240" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -5893,17 +5893,21 @@
         <v>45</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E241" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E241">
+      <sortCondition ref="A1:A241"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
